--- a/Yamuna.xlsx
+++ b/Yamuna.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA65BA56-D943-47B8-9385-6983B0374345}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97328C7B-D331-4A28-9B40-A4A03024F5B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
-  <si>
-    <t>CreateProfilesFromCallout</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>ApexClass</t>
   </si>
@@ -34,19 +31,19 @@
     <t>PortalApplication</t>
   </si>
   <si>
-    <t>Case Process Builder</t>
-  </si>
-  <si>
-    <t>HttpCreateApprovalsTest</t>
-  </si>
-  <si>
-    <t>HttpCreateFormsTest</t>
-  </si>
-  <si>
-    <t>PortalApplicationTest</t>
-  </si>
-  <si>
     <t>HttpCreateForms</t>
+  </si>
+  <si>
+    <t>AccountTriggerHandler</t>
+  </si>
+  <si>
+    <t>CaseTriggerHandler</t>
+  </si>
+  <si>
+    <t>Test classes</t>
+  </si>
+  <si>
+    <t>HttpApprovals</t>
   </si>
 </sst>
 </file>
@@ -85,10 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,128 +365,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>43782</v>
+        <v>43809</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>43783</v>
+        <v>43811</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>43788</v>
+        <v>43815</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>43789</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>43816</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>43789</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>43822</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>43789</v>
+        <v>43822</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43798</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Yamuna.xlsx
+++ b/Yamuna.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97328C7B-D331-4A28-9B40-A4A03024F5B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BBA9CC-C8A9-4DF4-A133-2A516C6909D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>ApexClass</t>
   </si>
@@ -34,16 +40,28 @@
     <t>HttpCreateForms</t>
   </si>
   <si>
-    <t>AccountTriggerHandler</t>
-  </si>
-  <si>
     <t>CaseTriggerHandler</t>
   </si>
   <si>
-    <t>Test classes</t>
-  </si>
-  <si>
-    <t>HttpApprovals</t>
+    <t>RegionUpdateOnCase</t>
+  </si>
+  <si>
+    <t>Test_EOIUpdate</t>
+  </si>
+  <si>
+    <t>CasePaperTriggerHandler</t>
+  </si>
+  <si>
+    <t>CashContributionsTriggerHandler</t>
+  </si>
+  <si>
+    <t>VolunteerNonCashTriggerHandler</t>
+  </si>
+  <si>
+    <t>ProjectIncomeTriggerHandler</t>
+  </si>
+  <si>
+    <t>ProjectCostTriggerHandler</t>
   </si>
 </sst>
 </file>
@@ -51,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,65 +384,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>43808</v>
+        <v>43838</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>43809</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>43811</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43815</v>
-      </c>
-      <c r="B4" t="s">
+        <v>43849</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -433,23 +452,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43816</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>43847</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43822</v>
+        <v>43851</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -461,9 +480,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43822</v>
+        <v>43851</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -475,32 +494,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>43853</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+        <v>43857</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
